--- a/csv/Oisix/Demo_meals.xlsx
+++ b/csv/Oisix/Demo_meals.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnyjones/Documents/Github/Saana_devel/csv/Oisix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A4FCAF7-147E-D541-8D9D-4F3F78487312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{364B970C-C1F5-1340-BE5E-6C5D88570FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="380" windowWidth="27240" windowHeight="16040" xr2:uid="{E8325D28-9BCC-284E-A723-7EDFB092BAC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="17540" activeTab="3" xr2:uid="{E8325D28-9BCC-284E-A723-7EDFB092BAC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
-    <sheet name="Nutrition_veestro_style" sheetId="3" r:id="rId2"/>
+    <sheet name="demo_ingredients" sheetId="1" r:id="rId1"/>
+    <sheet name="demo_nutrition" sheetId="3" r:id="rId2"/>
     <sheet name="Nutrition_euphebe_style" sheetId="2" r:id="rId3"/>
+    <sheet name="New ingredients list" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="432">
   <si>
     <t>Item Name</t>
   </si>
@@ -393,14 +394,1152 @@
     <t>Ash</t>
   </si>
   <si>
-    <t>Tofu and Veggie Soup - No.29 - test</t>
+    <t>Chicken and Tomato with Eggplant - No.2</t>
+  </si>
+  <si>
+    <t>Potato</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Onion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Tomato paste</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken stock cubes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Maple syrup</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Olive oil</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Flour</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sugar</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Milk</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken Noodle Soup with Tofu - No.7 </t>
+  </si>
+  <si>
+    <t>Chinese noodle</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Salt sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Whitish chicken-bone soup</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Seaweed</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Silk tofu</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Bonito Flakes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Ground ginger</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Soy sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Eggplant</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Almond</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Onion dressing</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Soft chicken</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green beans</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Japanese yam</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Noodle soup</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Nori seaweed flakes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Butter</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Broccoli</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sesami</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cod roe</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Bonito flakes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Vinegar</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pak choi</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Ponzu sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Roasted sesami</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Boild hijiki seaweed</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cubic rice crackers</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken leg</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Green beans</t>
+  </si>
+  <si>
+    <t>Burdock</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Sake</t>
+  </si>
+  <si>
+    <t>Sweet sake</t>
+  </si>
+  <si>
+    <t>Soy sauce</t>
+  </si>
+  <si>
+    <t>Potato starch</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cucumber</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>King trumpet mushroom</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Red bell pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cabbage</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Hijiki seaweed</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Shimeji mushroom</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sweet sake</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Horse Mackerel with cucumber salad - No.22</t>
+  </si>
+  <si>
+    <t>Tatsutaage of horse mackerel</t>
+  </si>
+  <si>
+    <t>Shiso</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Japanese pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sea lettuce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Seawead</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pumpkin Mushroom Soup - No.28</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Parsley</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cheese</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>White sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Salt Mackerel with potato and cucumber salad - No.20</t>
+  </si>
+  <si>
+    <t>Salt mackerel</t>
+  </si>
+  <si>
+    <t>Komatsuna</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Grated ginger</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Potato starch</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Grilled Mackerel with pork and sweet potatoes - No.26</t>
+  </si>
+  <si>
+    <t>Grilled mackerel</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Young corn</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Rice vermicelli</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Grond ginger</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sake</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Semi-ready pork bowl</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Gochujang</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pork loin with carrot and onion salad - No.5</t>
+  </si>
+  <si>
+    <t>Pork loin</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Salted rice malt</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Lettuce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Soy Sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken and tomato rice with radish salad - No.1</t>
+  </si>
+  <si>
+    <t>Onion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cherry tomato</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Carrot</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Corn</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Ground garlic</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Tomato paste</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Curry powder</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chili powder</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Flour</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Stock cubes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Salt</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Radish</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Komatsuna</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green onion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken stock cubes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Sesami oil</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chinese sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Mapo Tofu with chicken and tomato soup - No.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ground pork</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Semi-ready mapo tofu</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Ketchup</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken breast strips</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Cherry tomato</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Rockfish and lotus with cabbage soup - No.25</t>
+  </si>
+  <si>
+    <t>Black rockfish</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Lotus root</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green oinion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chinese cabbage</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pepper</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Salted mackerel</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Balsamic vinegar</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Bacon</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Olive</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Mackerel and pumpkin with komatsuna salad - No.18</t>
+  </si>
+  <si>
+    <t>Stirfry and egg with tofu soup - No.16</t>
+  </si>
+  <si>
+    <t>Flavoured minced beef/pork/chicken flakes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chinese chive</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Enoki mushroom</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Namul sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chinese chili bean sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chinese sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Tofu and veggie soup 2 - No.30</t>
+  </si>
+  <si>
+    <t>Shimeji muchroom</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Ginger</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Miso mackerel and pumpkin with shrimp tempura - No.21</t>
+  </si>
+  <si>
+    <t>Simmered miso mackerel</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Dried shrimp</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken and eggplant with sweet potato and spinach - No.9</t>
+  </si>
+  <si>
+    <t>Fried eggplant</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Boiled food sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Spinach</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Saury Fish with spinach and radish salad - No.23</t>
+  </si>
+  <si>
+    <t>Saury fish</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Stock cubes</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pork loin and eggplant with spinach salad - No.12</t>
+  </si>
+  <si>
+    <t>Black vinegar</t>
+    <rPh sb="0" eb="1">
+      <t>◆</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>クロズ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Beef and Broccoli with Tofu and veggies - No.15</t>
+  </si>
+  <si>
+    <t>Japanese beef</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Oyster sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Frozen mixed vegetable</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Beef and veggies with potatoes - No.3</t>
+  </si>
+  <si>
+    <t>Tomato sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Stirfry chicken and veggies with fried eggplant - No.17</t>
+  </si>
+  <si>
+    <t>Ground chicken</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Gaprao sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Fried onion</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pork loin and fried eggplant with potatoes - No.10</t>
+  </si>
+  <si>
+    <t>Okra</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pork Casserole with veggie soup - No.4</t>
+  </si>
+  <si>
+    <t>Ground pork</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Demiglace sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Parmesan cheese</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Green soybeans</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Tatsutaage of yellowtail</t>
+  </si>
+  <si>
+    <t>Tatsutaage of yellowtail with broccoli and cauliflower - No.24</t>
+  </si>
+  <si>
+    <t>Marinated sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Happou Sauce</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Tatsutaage of horse mackerel with cauliflower and broccoli - No.19</t>
+  </si>
+  <si>
+    <t>Corn</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Curry powder</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Shrimp and veggies with fried eggplant - No.27</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Asparagus</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>vinegar</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Chicken Potatoes and beans with Broccoli and Cauliflower - No.11</t>
+  </si>
+  <si>
+    <t>Chicken Potatoes and Pak Choi - No.6</t>
+  </si>
+  <si>
+    <t>Chicken Eggplant and Sweet Potatoes - No.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken cucumber and mushroom with seaweed salad - No.13 </t>
+  </si>
+  <si>
+    <t>Potato, taro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom, shiitake </t>
+  </si>
+  <si>
+    <t>Onion, green</t>
+  </si>
+  <si>
+    <t>Onion, small green</t>
+  </si>
+  <si>
+    <t>Tofu, firm</t>
+  </si>
+  <si>
+    <t>Tofu, deep fried</t>
+  </si>
+  <si>
+    <t>Chicken, boiled</t>
+  </si>
+  <si>
+    <t>Pepper, green</t>
+  </si>
+  <si>
+    <t>Tomato, canned</t>
+  </si>
+  <si>
+    <t>Tomato, paste</t>
+  </si>
+  <si>
+    <t>Tofu, silk</t>
+  </si>
+  <si>
+    <t>Chicken, soft</t>
+  </si>
+  <si>
+    <t>Potato, sweet</t>
+  </si>
+  <si>
+    <t>Ground ginger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radish </t>
+  </si>
+  <si>
+    <t>Eel sauce</t>
+  </si>
+  <si>
+    <t>Happou sauce</t>
+  </si>
+  <si>
+    <t>Chinese sauce</t>
+  </si>
+  <si>
+    <t>high in fiber and some other minerals</t>
+  </si>
+  <si>
+    <t>basic broth I think</t>
+  </si>
+  <si>
+    <t>Whitish chicken-bone soup</t>
+  </si>
+  <si>
+    <t>deep fried!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? Could be a few different varieties </t>
+  </si>
+  <si>
+    <t>see fish in general, mackerel tends to be better rated</t>
+  </si>
+  <si>
+    <t>see tofu</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/is-shrimp-healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No carbs, high protein omega-3s. High in selenium and other nutrients </t>
+  </si>
+  <si>
+    <t>https://www.drugs.com/npp/perilla.html</t>
+  </si>
+  <si>
+    <t>garnish similar to mint. Aka perilla. Used in chinese medicine for anti-inflammatory effects. Potential anti-carcinogenic</t>
+  </si>
+  <si>
+    <t>https://www.sushisushi.co.uk/blogs/education/dashi-shiro-dashi-tsuyu-whats-the-difference</t>
+  </si>
+  <si>
+    <t>"soup base made from bonito or kombu dashi and white soy sauce, mirin, sugar. It's often used by professional chefs but it's now used in the home too"</t>
+  </si>
+  <si>
+    <t>Shirodashi</t>
+  </si>
+  <si>
+    <t>see mushroom general</t>
+  </si>
+  <si>
+    <t>Mushroom, Shimeji</t>
+  </si>
+  <si>
+    <t>avoid because red meat!</t>
+  </si>
+  <si>
+    <t>? Some sort of processed/pre-made thing so not sure</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/seaweed-healthy-nutritious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see description in hijiki seaweed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seaweed </t>
+  </si>
+  <si>
+    <t>algae, see seaweed in general</t>
+  </si>
+  <si>
+    <t>Seaweed, sea lettuce</t>
+  </si>
+  <si>
+    <t>see fish in general</t>
+  </si>
+  <si>
+    <t>https://www.clearspring.co.uk/blogs/news/8024723-koji-the-culture-behind-japanese-food-production</t>
+  </si>
+  <si>
+    <t>"traditional condiment made from fermented malted rice, salt and water. " Ambiguous health properties… hyped up casue of being fermented but couldn't find studies</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/pumpkin-nutrition-review</t>
+  </si>
+  <si>
+    <t>winter squash in the same family as cucumbers and melons. High in vit k and beta-carotene</t>
+  </si>
+  <si>
+    <r>
+      <t>https://kale.world/taro-vs-sweet-potato/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>.      https://www.healthline.com/nutrition/taro-root-benefits</t>
+    </r>
+  </si>
+  <si>
+    <t>~ sweet potato but can be updated later***. Less vitamin A</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/foods/sweet-potatoes</t>
+  </si>
+  <si>
+    <t>high in vitamin A (sweet potatoes only, not other potatoes). Beta-carotenoids preventative of prostate cancer. High in choline which is good for fatigue. High in fiber -- good for diabetes and blood sugar control</t>
+  </si>
+  <si>
+    <t>see red meat</t>
+  </si>
+  <si>
+    <t>Pork, loin</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ponzu</t>
+  </si>
+  <si>
+    <t>"Ponzu is made by simmering mirin, rice vinegar, katsuobushi flakes (from tuna), and seaweed (kombu) over medium heat. The liquid is then cooled, strained to remove the katsuobushi flakes, and finally the juice of one or more of the following citrus fruits is added: yuzu, sudachi, daidai, kabosu, or lemon</t>
+  </si>
+  <si>
+    <t>Ponzu sauce</t>
+  </si>
+  <si>
+    <t>see cheese</t>
+  </si>
+  <si>
+    <t>Chinese cabbage in the cruciferious/brassica family</t>
+  </si>
+  <si>
+    <t>Pak choi</t>
+  </si>
+  <si>
+    <t>see onion general</t>
+  </si>
+  <si>
+    <t>Onion, (small) green</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/okra-health-benefits</t>
+  </si>
+  <si>
+    <t>has anti-oxidants (polyphenols, isoquercetin), anti-fatigue properties. Also has lectin which has been shown to have anti-breast cancer cell effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see seaweed in general </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Namul</t>
+  </si>
+  <si>
+    <t>"Namul (Korean: 나물) refers to either a variety of edible grass or leaves or seasoned herbal dishes made of them"</t>
+  </si>
+  <si>
+    <t>see carcinogenic foods. Seems to protect against colon cancer. 4 meals</t>
+  </si>
+  <si>
+    <t>should probably put in avoid ? Only in 6 meals</t>
+  </si>
+  <si>
+    <t>? Probably a simple sauce</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/health/8-uses-for-lotus</t>
+  </si>
+  <si>
+    <t>roots from water lily. Might be good for lung cancer? Very preliminary research</t>
+  </si>
+  <si>
+    <t>Japanese mustard spinach (brassica/cruciferous family).</t>
+  </si>
+  <si>
+    <t>Mushroom, king trumpet</t>
+  </si>
+  <si>
+    <t>~ sweet potato but can be updated later***</t>
+  </si>
+  <si>
+    <t>Japanese Yam</t>
+  </si>
+  <si>
+    <t>small seasoning</t>
+  </si>
+  <si>
+    <t>soy, sake, mirin, sugar sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happou sauce </t>
+  </si>
+  <si>
+    <t>Pork, ground</t>
+  </si>
+  <si>
+    <t>red chili paste. May need to consider for spiciness</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
+  </si>
+  <si>
+    <t>? Think it's just thai brown sauce</t>
+  </si>
+  <si>
+    <t>Gaprao sauce</t>
+  </si>
+  <si>
+    <t>not clear what veggies are in this, but only in the side dish so probably okay for now</t>
+  </si>
+  <si>
+    <t>Mushroom, enoki</t>
+  </si>
+  <si>
+    <t>ingredients: soy sauce and sugar, and something to thicken it.</t>
+  </si>
+  <si>
+    <t>No carbs, high protein omega-3s. High in selenium and other nutrients but unclear how drying would affect this</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Demi-glace</t>
+  </si>
+  <si>
+    <t>"Demi-glace is a rich brown sauce in French cuisine used by itself or as a base for other sauces. The term comes from the French word glace, which, when used in reference to a sauce, means "icing" or "glaze." It is traditionally made by combining one part Espagnole sauce and one part brown stock. "</t>
+  </si>
+  <si>
+    <t>? Different varieties exist</t>
+  </si>
+  <si>
+    <t>fish eggs (no health/nutrition info)</t>
+  </si>
+  <si>
+    <t>Cod roe</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Allium_tuberosum</t>
+  </si>
+  <si>
+    <t>"species of onion native to southwestern parts of the Chinese province of Shanxi, and cultivated and naturalized elsewhere in Asia and around the world" Chives are part of the allium family of vegetables and herbs. This family also includes garlic, scallions, onions and leeks</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Doubanjiang</t>
+  </si>
+  <si>
+    <t>" salty paste made from fermented broad beans, soybeans, salt, rice and various spices"</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/benefits-of-cabbage</t>
+  </si>
+  <si>
+    <t>Just going to rename to "cabbage"</t>
+  </si>
+  <si>
+    <t>Chinese (napa) cabbage</t>
+  </si>
+  <si>
+    <t>boiled, soft, fried, *Need to get insight onto how to incorporate this into our recommendations</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.webmd.com/vitamins/ai/ingredientmono-111/burdock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.mskcc.org/cancer-care/integrative-medicine/herbs/burdock   https://www.healthline.com/health/burdock-root</t>
+    </r>
+  </si>
+  <si>
+    <t>Plant often used as medicine, but efficacy is unknown. Has antioxidants "quercetin, luteolin, and phenolic acids" in it (healthline). From MSK "Certain components of burdock were shown to stop the growth of bacteria and fungi in lab studies. In animal experiments, the root extract lowered blood sugar, stimulated uterine contractions, induced an immune response, and protected against DNA mutations. A clinical study found that application of a cream containing burdock extract improved the appearance of wrinkled skin." Most clear data suggests anti-inflammatory effects, and glucose management for diabetes</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Katsuobushi</t>
+  </si>
+  <si>
+    <t>"Katsuobushi (Japanese: 鰹節) is dried, fermented, and smoked skipjack tuna (Katsuwonus pelamis). It is also known as bonito flakes when young bonito is used as a cheaper substitute for skipjack tuna"</t>
+  </si>
+  <si>
+    <t>Bonito Flakes</t>
+  </si>
+  <si>
+    <t>https://www.healthline.com/nutrition/benefits-of-seaweed</t>
+  </si>
+  <si>
+    <t>Good for breast/colon cancer (cause iodine)
+Good for constipation and diarrhea cause fiber/bacteria
+Good anti-oxidant
+Can help with weightloss via appetite supression
+May help with heart disease and diabetes</t>
+  </si>
+  <si>
+    <t>Fish, black rockfish</t>
+  </si>
+  <si>
+    <t>Balsamic vinegar</t>
+  </si>
+  <si>
+    <t>New Ingredients from Oisix</t>
+  </si>
+  <si>
+    <t>Pork, semi-ready bowl</t>
+  </si>
+  <si>
+    <t>Fish, saury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish, mackerel, Simmered miso </t>
+  </si>
+  <si>
+    <t>Fish, mackerel, salt</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>Seaweed, nori flakes</t>
+  </si>
+  <si>
+    <t>Seaweed, Hijiki</t>
+  </si>
+  <si>
+    <t>Fish, mackerel, grilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seaweed, Boiled hijiki </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="11">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,6 +1561,52 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -437,7 +1622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -445,20 +1630,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -771,100 +2028,2733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4490E09-7461-C04A-BE69-A23329171A10}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="68" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18">
-      <c r="A6" s="1" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18">
-      <c r="A7" s="1" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18">
-      <c r="A12" s="1" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18">
-      <c r="A15" s="1" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
-      <c r="A16" s="1" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="1" t="s">
+    <row r="399" spans="1:1">
+      <c r="A399" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -874,249 +4764,3654 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7565C66A-B3DE-A944-A0D8-92A9A8FC0295}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="10.83203125" style="11"/>
+    <col min="33" max="33" width="22.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="16">
         <v>182.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="16">
         <v>6.3000000000000007</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="16">
         <v>6.8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="16">
         <v>22.000000000000007</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>1.7</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
         <v>1040.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="16">
         <v>544.79999999999984</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="16">
         <v>135.19999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="16">
         <v>52.9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="16">
         <v>132.39999999999998</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="16">
         <v>1.6</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="16">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="16">
         <v>0.19</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="16">
         <v>0.6000000000000002</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="16">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="16">
         <v>2840.8</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="16">
         <v>482.79999999999995</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="16">
         <v>0.2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="16">
         <v>1.5</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="16">
         <v>81.000000000000014</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="16">
         <v>0.13</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="16">
         <v>0.08</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="16">
         <v>1.2</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="16">
         <v>0.22999999999999998</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="16">
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="16">
         <v>87.399999999999991</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="16">
         <v>0.54</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="16">
         <v>17.400000000000002</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="16">
         <v>1.06</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="16">
         <v>3.0999999999999996</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="16">
         <v>0.4</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="16">
         <v>1.3</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="16">
         <v>3.3</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="16">
         <v>4.8</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="16">
         <v>413.1</v>
       </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="16">
+        <v>797.09999999999991</v>
+      </c>
+      <c r="C3" s="16">
+        <v>25.8</v>
+      </c>
+      <c r="D3" s="16">
+        <v>31</v>
+      </c>
+      <c r="E3" s="16">
+        <v>102.2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1282.3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1441.6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>92.699999999999989</v>
+      </c>
+      <c r="K3" s="16">
+        <v>109.5</v>
+      </c>
+      <c r="L3" s="16">
+        <v>346.50000000000011</v>
+      </c>
+      <c r="M3" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="P3" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="R3" s="16">
+        <v>1382.1</v>
+      </c>
+      <c r="S3" s="16">
+        <v>243.2</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="V3" s="16">
+        <v>45.4</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>106.1</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>70.399999999999991</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>4.92</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>19.54</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>3.96</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>541.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="16">
+        <v>697.19999999999993</v>
+      </c>
+      <c r="C4" s="16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D4" s="16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>95.499999999999986</v>
+      </c>
+      <c r="F4" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>10.9</v>
+      </c>
+      <c r="H4" s="16">
+        <v>3378.9</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1029.8</v>
+      </c>
+      <c r="J4" s="16">
+        <v>125.9</v>
+      </c>
+      <c r="K4" s="16">
+        <v>96.5</v>
+      </c>
+      <c r="L4" s="16">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="R4" s="16">
+        <v>2574.6</v>
+      </c>
+      <c r="S4" s="16">
+        <v>447.6</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="V4" s="16">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>47.999999999999993</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>1.74</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>6.56</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>5.64</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>79.999999999999986</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>587.30000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="16">
+        <v>800.20000000000016</v>
+      </c>
+      <c r="C5" s="16">
+        <v>35.599999999999987</v>
+      </c>
+      <c r="D5" s="16">
+        <v>28.9</v>
+      </c>
+      <c r="E5" s="16">
+        <v>92.9</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1776</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1051.2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>105.3</v>
+      </c>
+      <c r="K5" s="16">
+        <v>92.90000000000002</v>
+      </c>
+      <c r="L5" s="16">
+        <v>417.1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="N5" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>57.599999999999987</v>
+      </c>
+      <c r="R5" s="16">
+        <v>435</v>
+      </c>
+      <c r="S5" s="16">
+        <v>130.6</v>
+      </c>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V5" s="16">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>125.9</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>54.900000000000013</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>6.53</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>11.35</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>6.85</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>144.1</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>351.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="16">
+        <v>641.1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>30.4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>20.7</v>
+      </c>
+      <c r="E6" s="16">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1058.9000000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>843.4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="K6" s="16">
+        <v>98.800000000000011</v>
+      </c>
+      <c r="L6" s="16">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1497.9</v>
+      </c>
+      <c r="S6" s="16">
+        <v>271.3</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="V6" s="16">
+        <v>74</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0.29000000000000009</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>6.3999999999999977</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>54.6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>28.3</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>3.21</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>8.39</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>6.81</v>
+      </c>
+      <c r="AH6" s="16">
+        <v>119.9</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL6" s="16">
+        <v>281.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="16">
+        <v>899.40000000000009</v>
+      </c>
+      <c r="C7" s="16">
+        <v>26.6</v>
+      </c>
+      <c r="D7" s="16">
+        <v>43.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>88.5</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="I7" s="16">
+        <v>901.5999999999998</v>
+      </c>
+      <c r="J7" s="16">
+        <v>82.100000000000009</v>
+      </c>
+      <c r="K7" s="16">
+        <v>86.7</v>
+      </c>
+      <c r="L7" s="16">
+        <v>334.5</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3.4</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.39</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>46.8</v>
+      </c>
+      <c r="R7" s="16">
+        <v>282.5</v>
+      </c>
+      <c r="S7" s="16">
+        <v>94</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="V7" s="16">
+        <v>134.5</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>105.3</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>3.23</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>22.3</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>7.47</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>13.99</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>118.5</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>428.30000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="16">
+        <v>704.9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>31.5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>27.4</v>
+      </c>
+      <c r="E8" s="16">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1231.5</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1110.5</v>
+      </c>
+      <c r="J8" s="16">
+        <v>156</v>
+      </c>
+      <c r="K8" s="16">
+        <v>98.6</v>
+      </c>
+      <c r="L8" s="16">
+        <v>362.5</v>
+      </c>
+      <c r="M8" s="16">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="N8" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>38.4</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1933</v>
+      </c>
+      <c r="S8" s="16">
+        <v>364</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="V8" s="16">
+        <v>195</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0.79000000000000026</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>122.5</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>3.71</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>56.900000000000013</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>5.43</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>10.41</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>7.6300000000000008</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>95.1</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>381.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="16">
+        <v>722.2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>33.5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>29.1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>75.300000000000011</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1375.1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>779.99999999999989</v>
+      </c>
+      <c r="J9" s="16">
+        <v>120.6</v>
+      </c>
+      <c r="K9" s="16">
+        <v>86.6</v>
+      </c>
+      <c r="L9" s="16">
+        <v>444.8</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>82.2</v>
+      </c>
+      <c r="R9" s="16">
+        <v>2684.1</v>
+      </c>
+      <c r="S9" s="16">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="T9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="U9" s="16">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="V9" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>96.300000000000011</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>14.6</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>4.4800000000000013</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>10.43</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>10.71</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>290.3</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="15">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="E10" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="15">
+        <v>533.9</v>
+      </c>
+      <c r="I10" s="15">
+        <v>379.4</v>
+      </c>
+      <c r="J10" s="15">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="K10" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>141.39999999999998</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>47.8</v>
+      </c>
+      <c r="R10" s="15">
+        <v>1577.5</v>
+      </c>
+      <c r="S10" s="15">
+        <v>308.8</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="U10" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="V10" s="15">
+        <v>12.7</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>38.699999999999996</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0.81</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>3.54</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>1.7799999999999998</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>18.8</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="15">
+        <v>891.80000000000007</v>
+      </c>
+      <c r="C11" s="15">
+        <v>37.4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43.800000000000004</v>
+      </c>
+      <c r="E11" s="15">
+        <v>80.7</v>
+      </c>
+      <c r="F11" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G11" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1449</v>
+      </c>
+      <c r="I11" s="15">
+        <v>972.5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>113.10000000000001</v>
+      </c>
+      <c r="K11" s="15">
+        <v>86.7</v>
+      </c>
+      <c r="L11" s="15">
+        <v>407.3</v>
+      </c>
+      <c r="M11" s="15">
+        <v>4</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.92</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R11" s="15">
+        <v>2178.1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>437</v>
+      </c>
+      <c r="T11" s="15">
+        <v>12.4</v>
+      </c>
+      <c r="U11" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V11" s="15">
+        <v>136.4</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>14.9</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>86.7</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>45.8</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>16.78</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>12.260000000000002</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>197.3</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="AK11" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>379.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="15">
+        <v>904.8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>28.6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>33.1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>116.2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G12" s="15">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2094.3000000000002</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1066.8</v>
+      </c>
+      <c r="J12" s="15">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="K12" s="15">
+        <v>94.800000000000011</v>
+      </c>
+      <c r="L12" s="15">
+        <v>399.2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="N12" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="P12" s="15">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>20.7</v>
+      </c>
+      <c r="R12" s="15">
+        <v>4247.9000000000005</v>
+      </c>
+      <c r="S12" s="15">
+        <v>745.40000000000009</v>
+      </c>
+      <c r="T12" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="U12" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="V12" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>91.699999999999989</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>41.099999999999987</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>9.67</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>12.43</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>5.9600000000000009</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="AK12" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="15">
+        <v>751.8</v>
+      </c>
+      <c r="C13" s="15">
+        <v>25.6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>36.5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>73.800000000000011</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1131.5999999999999</v>
+      </c>
+      <c r="I13" s="15">
+        <v>667.6</v>
+      </c>
+      <c r="J13" s="15">
+        <v>86</v>
+      </c>
+      <c r="K13" s="15">
+        <v>63.8</v>
+      </c>
+      <c r="L13" s="15">
+        <v>304.5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="N13" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>6</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1053.2</v>
+      </c>
+      <c r="S13" s="15">
+        <v>185</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="V13" s="15">
+        <v>29.1</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>53.9</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>1.39</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>9.9599999999999991</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>6.23</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>297.39999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="15">
+        <v>668.1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D14" s="15">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E14" s="15">
+        <v>87.300000000000011</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="H14" s="15">
+        <v>597.79999999999995</v>
+      </c>
+      <c r="I14" s="15">
+        <v>909.59999999999991</v>
+      </c>
+      <c r="J14" s="15">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="K14" s="15">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L14" s="15">
+        <v>331.60000000000008</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="N14" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="R14" s="15">
+        <v>2420.1999999999998</v>
+      </c>
+      <c r="S14" s="15">
+        <v>424.29999999999995</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>4</v>
+      </c>
+      <c r="V14" s="15">
+        <v>87.6</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X14" s="15">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>7.2999999999999972</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>97.500000000000014</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>2.04</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>3.04</v>
+      </c>
+      <c r="AF14" s="15">
+        <v>7.31</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>6.77</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>115.69999999999999</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="AK14" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="AL14" s="15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="15">
+        <v>728.8</v>
+      </c>
+      <c r="C15" s="15">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15">
+        <v>29.2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>79</v>
+      </c>
+      <c r="F15" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2410.8000000000002</v>
+      </c>
+      <c r="I15" s="15">
+        <v>829.49999999999989</v>
+      </c>
+      <c r="J15" s="15">
+        <v>134.5</v>
+      </c>
+      <c r="K15" s="15">
+        <v>117.8</v>
+      </c>
+      <c r="L15" s="15">
+        <v>407.50000000000011</v>
+      </c>
+      <c r="M15" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="N15" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>13</v>
+      </c>
+      <c r="R15" s="15">
+        <v>336.8</v>
+      </c>
+      <c r="S15" s="15">
+        <v>69.5</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="V15" s="15">
+        <v>84.9</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>8.6</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>2.34</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>26</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>9.17</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>7.1100000000000012</v>
+      </c>
+      <c r="AH15" s="15">
+        <v>71.5</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>487.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="15">
+        <v>685.5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>26</v>
+      </c>
+      <c r="D16" s="15">
+        <v>28.7</v>
+      </c>
+      <c r="E16" s="15">
+        <v>77.300000000000011</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1459.5</v>
+      </c>
+      <c r="I16" s="15">
+        <v>769.59999999999991</v>
+      </c>
+      <c r="J16" s="15">
+        <v>192.5</v>
+      </c>
+      <c r="K16" s="15">
+        <v>67.3</v>
+      </c>
+      <c r="L16" s="15">
+        <v>375.6</v>
+      </c>
+      <c r="M16" s="15">
+        <v>2.3000000000000012</v>
+      </c>
+      <c r="N16" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>46.3</v>
+      </c>
+      <c r="R16" s="15">
+        <v>2193.5</v>
+      </c>
+      <c r="S16" s="15">
+        <v>419.2</v>
+      </c>
+      <c r="T16" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="U16" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="V16" s="15">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>94.7</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>30.900000000000009</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>10.69</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>11.08</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>177.2</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AJ16" s="15">
+        <v>3.3000000000000012</v>
+      </c>
+      <c r="AK16" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="AL16" s="15">
+        <v>485.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="15">
+        <v>752.7</v>
+      </c>
+      <c r="C17" s="15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D17" s="15">
+        <v>33.400000000000013</v>
+      </c>
+      <c r="E17" s="15">
+        <v>73.800000000000011</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="G17" s="15">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1125.3</v>
+      </c>
+      <c r="I17" s="15">
+        <v>768.9</v>
+      </c>
+      <c r="J17" s="15">
+        <v>182.5</v>
+      </c>
+      <c r="K17" s="15">
+        <v>77.600000000000009</v>
+      </c>
+      <c r="L17" s="15">
+        <v>360.9</v>
+      </c>
+      <c r="M17" s="15">
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="N17" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="R17" s="15">
+        <v>3321.7</v>
+      </c>
+      <c r="S17" s="15">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="T17" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="U17" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="V17" s="15">
+        <v>266.80000000000013</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>122.3</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>46.3</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>6.83</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>15.32</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>5.8900000000000006</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK17" s="15">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="AL17" s="15">
+        <v>356.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="15">
+        <v>587.90000000000009</v>
+      </c>
+      <c r="C18" s="15">
+        <v>27.900000000000002</v>
+      </c>
+      <c r="D18" s="15">
+        <v>21.2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1120.8</v>
+      </c>
+      <c r="I18" s="15">
+        <v>998.7</v>
+      </c>
+      <c r="J18" s="15">
+        <v>159.9</v>
+      </c>
+      <c r="K18" s="15">
+        <v>86.600000000000009</v>
+      </c>
+      <c r="L18" s="15">
+        <v>402.4</v>
+      </c>
+      <c r="M18" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="N18" s="15">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="P18" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="R18" s="15">
+        <v>7831.6</v>
+      </c>
+      <c r="S18" s="15">
+        <v>1406.8</v>
+      </c>
+      <c r="T18" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="U18" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="V18" s="15">
+        <v>313.8</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0.53000000000000014</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>182.3</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>20.7</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="AF18" s="15">
+        <v>7.74</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>254.5</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="AK18" s="15">
+        <v>7.6</v>
+      </c>
+      <c r="AL18" s="15">
+        <v>584.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="15">
+        <v>86.6</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>10.7</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="G19" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="H19" s="15">
+        <v>765.40000000000009</v>
+      </c>
+      <c r="I19" s="15">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="J19" s="15">
+        <v>77.5</v>
+      </c>
+      <c r="K19" s="15">
+        <v>29</v>
+      </c>
+      <c r="L19" s="15">
+        <v>86</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1133.6999999999998</v>
+      </c>
+      <c r="S19" s="15">
+        <v>192.6</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="V19" s="15">
+        <v>37.699999999999996</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="X19" s="15">
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>37.000000000000007</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>1.34</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="15">
+        <v>955.2</v>
+      </c>
+      <c r="C20" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>45.3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>106.3</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="H20" s="15">
+        <v>952.4</v>
+      </c>
+      <c r="I20" s="15">
+        <v>629.9</v>
+      </c>
+      <c r="J20" s="15">
+        <v>318.5</v>
+      </c>
+      <c r="K20" s="15">
+        <v>76.899999999999991</v>
+      </c>
+      <c r="L20" s="15">
+        <v>395.2</v>
+      </c>
+      <c r="M20" s="15">
+        <v>3</v>
+      </c>
+      <c r="N20" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.92</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>42</v>
+      </c>
+      <c r="R20" s="15">
+        <v>4064</v>
+      </c>
+      <c r="S20" s="15">
+        <v>730</v>
+      </c>
+      <c r="T20" s="15">
+        <v>5</v>
+      </c>
+      <c r="U20" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="V20" s="15">
+        <v>105.2</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>60.099999999999987</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>7.0400000000000009</v>
+      </c>
+      <c r="AF20" s="15">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>17.63</v>
+      </c>
+      <c r="AH20" s="15">
+        <v>88.3</v>
+      </c>
+      <c r="AI20" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="AK20" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AL20" s="15">
+        <v>256.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="15">
+        <v>668.30000000000007</v>
+      </c>
+      <c r="C21" s="15">
+        <v>38.1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="H21" s="15">
+        <v>474.70000000000005</v>
+      </c>
+      <c r="I21" s="15">
+        <v>912.99999999999989</v>
+      </c>
+      <c r="J21" s="15">
+        <v>109.30000000000001</v>
+      </c>
+      <c r="K21" s="15">
+        <v>91</v>
+      </c>
+      <c r="L21" s="15">
+        <v>368.3</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="N21" s="15">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>17</v>
+      </c>
+      <c r="R21" s="15">
+        <v>1808.2</v>
+      </c>
+      <c r="S21" s="15">
+        <v>310.5</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="V21" s="15">
+        <v>153.6</v>
+      </c>
+      <c r="W21" s="15">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="X21" s="15">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>99.8</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>20.6</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="AF21" s="15">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>7.17</v>
+      </c>
+      <c r="AH21" s="15">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="AI21" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ21" s="15">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="AK21" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AL21" s="15">
+        <v>312.90000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="15">
+        <v>741.40000000000009</v>
+      </c>
+      <c r="C22" s="15">
+        <v>22.1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>29.7</v>
+      </c>
+      <c r="E22" s="15">
+        <v>92.100000000000009</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="H22" s="15">
+        <v>739.1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>781</v>
+      </c>
+      <c r="J22" s="15">
+        <v>149.5</v>
+      </c>
+      <c r="K22" s="15">
+        <v>83</v>
+      </c>
+      <c r="L22" s="15">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="M22" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="N22" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1.06</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="R22" s="15">
+        <v>2165.6999999999998</v>
+      </c>
+      <c r="S22" s="15">
+        <v>395.2</v>
+      </c>
+      <c r="T22" s="15">
+        <v>11.5</v>
+      </c>
+      <c r="U22" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="V22" s="15">
+        <v>182.8</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>5.7</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>149.1</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>1.85</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>49</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>6.74</v>
+      </c>
+      <c r="AF22" s="15">
+        <v>10.95</v>
+      </c>
+      <c r="AG22" s="15">
+        <v>7.32</v>
+      </c>
+      <c r="AH22" s="15">
+        <v>50.1</v>
+      </c>
+      <c r="AI22" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AJ22" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="AK22" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="16">
+        <v>871.2</v>
+      </c>
+      <c r="C23" s="16">
+        <v>31.099999999999998</v>
+      </c>
+      <c r="D23" s="16">
+        <v>42.199999999999996</v>
+      </c>
+      <c r="E23" s="16">
+        <v>86.2</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="H23" s="16">
+        <v>713.80000000000018</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1079.7</v>
+      </c>
+      <c r="J23" s="16">
+        <v>113.7</v>
+      </c>
+      <c r="K23" s="16">
+        <v>98.199999999999989</v>
+      </c>
+      <c r="L23" s="16">
+        <v>364.50000000000006</v>
+      </c>
+      <c r="M23" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="N23" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="R23" s="16">
+        <v>2889.4</v>
+      </c>
+      <c r="S23" s="16">
+        <v>481.20000000000005</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="V23" s="16">
+        <v>176.39999999999998</v>
+      </c>
+      <c r="W23" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>113.5</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>11.850000000000001</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>17.71</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>7.8100000000000005</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>77.5</v>
+      </c>
+      <c r="AI23" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="AJ23" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="AK23" s="16">
+        <v>5.6</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>328.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="15">
+        <v>658.6</v>
+      </c>
+      <c r="C24" s="15">
+        <v>28.1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>28.7</v>
+      </c>
+      <c r="E24" s="15">
+        <v>68.800000000000011</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="G24" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1017.6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>765.5</v>
+      </c>
+      <c r="J24" s="15">
+        <v>70.800000000000011</v>
+      </c>
+      <c r="K24" s="15">
+        <v>83.5</v>
+      </c>
+      <c r="L24" s="15">
+        <v>318.89999999999998</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="N24" s="15">
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="S24" s="15">
+        <v>108.7</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="V24" s="15">
+        <v>131</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="X24" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>156.5</v>
+      </c>
+      <c r="AC24" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AD24" s="15">
+        <v>102.8</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>6.78</v>
+      </c>
+      <c r="AF24" s="15">
+        <v>12.45</v>
+      </c>
+      <c r="AG24" s="15">
+        <v>6.0400000000000009</v>
+      </c>
+      <c r="AH24" s="15">
+        <v>66.2</v>
+      </c>
+      <c r="AI24" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ24" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="AK24" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="15">
+        <v>643.1</v>
+      </c>
+      <c r="C25" s="15">
+        <v>23.9</v>
+      </c>
+      <c r="D25" s="15">
+        <v>23.900000000000002</v>
+      </c>
+      <c r="E25" s="15">
+        <v>79</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="H25" s="15">
+        <v>279.70000000000005</v>
+      </c>
+      <c r="I25" s="15">
+        <v>902.3</v>
+      </c>
+      <c r="J25" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="K25" s="15">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="L25" s="15">
+        <v>265.7</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="N25" s="15">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>12.6</v>
+      </c>
+      <c r="R25" s="15">
+        <v>473.7</v>
+      </c>
+      <c r="S25" s="15">
+        <v>91.1</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="V25" s="15">
+        <v>35.1</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>67.5</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="AD25" s="15">
+        <v>80</v>
+      </c>
+      <c r="AE25" s="15">
+        <v>7.1899999999999995</v>
+      </c>
+      <c r="AF25" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>3.2100000000000004</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>71.8</v>
+      </c>
+      <c r="AI25" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>325.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="15">
+        <v>564.29999999999995</v>
+      </c>
+      <c r="C26" s="15">
+        <v>25.9</v>
+      </c>
+      <c r="D26" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E26" s="15">
+        <v>68.300000000000011</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="G26" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1314.7</v>
+      </c>
+      <c r="I26" s="15">
+        <v>693.09999999999991</v>
+      </c>
+      <c r="J26" s="15">
+        <v>85.2</v>
+      </c>
+      <c r="K26" s="15">
+        <v>78.200000000000017</v>
+      </c>
+      <c r="L26" s="15">
+        <v>211.9</v>
+      </c>
+      <c r="M26" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N26" s="15">
+        <v>2</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>36</v>
+      </c>
+      <c r="R26" s="15">
+        <v>554.5</v>
+      </c>
+      <c r="S26" s="15">
+        <v>119.9</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="V26" s="15">
+        <v>52.5</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>47.6</v>
+      </c>
+      <c r="AE26" s="15">
+        <v>3.26</v>
+      </c>
+      <c r="AF26" s="15">
+        <v>7.9200000000000008</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>5.1300000000000008</v>
+      </c>
+      <c r="AH26" s="15">
+        <v>67.999999999999986</v>
+      </c>
+      <c r="AI26" s="15">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AJ26" s="15">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="AL26" s="15">
+        <v>299.10000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="15">
+        <v>753</v>
+      </c>
+      <c r="C27" s="15">
+        <v>26.1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E27" s="15">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F27" s="15">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="G27" s="15">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1276.4000000000001</v>
+      </c>
+      <c r="I27" s="15">
+        <v>890.2</v>
+      </c>
+      <c r="J27" s="15">
+        <v>78.2</v>
+      </c>
+      <c r="K27" s="15">
+        <v>90.6</v>
+      </c>
+      <c r="L27" s="15">
+        <v>312.2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="N27" s="15">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="R27" s="15">
+        <v>291</v>
+      </c>
+      <c r="S27" s="15">
+        <v>51.2</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="V27" s="15">
+        <v>88.399999999999991</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>8.9</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>73.8</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="AD27" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="AE27" s="15">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AF27" s="15">
+        <v>14.8</v>
+      </c>
+      <c r="AG27" s="15">
+        <v>6.51</v>
+      </c>
+      <c r="AH27" s="15">
+        <v>66</v>
+      </c>
+      <c r="AI27" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="AJ27" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="AK27" s="15">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="AL27" s="15">
+        <v>286.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="15">
+        <v>713.30000000000007</v>
+      </c>
+      <c r="C28" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="D28" s="15">
+        <v>29</v>
+      </c>
+      <c r="E28" s="15">
+        <v>84.300000000000011</v>
+      </c>
+      <c r="F28" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1511.2</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1032.2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>154</v>
+      </c>
+      <c r="K28" s="15">
+        <v>83.1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>348.8</v>
+      </c>
+      <c r="M28" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="N28" s="15">
+        <v>4</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="P28" s="15">
+        <v>1.02</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>46.6</v>
+      </c>
+      <c r="R28" s="15">
+        <v>3012.7</v>
+      </c>
+      <c r="S28" s="15">
+        <v>550.19999999999993</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="U28" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="V28" s="15">
+        <v>158.9</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0.38000000000000012</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>1.89</v>
+      </c>
+      <c r="AD28" s="15">
+        <v>53.4</v>
+      </c>
+      <c r="AE28" s="15">
+        <v>8.67</v>
+      </c>
+      <c r="AF28" s="15">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AG28" s="15">
+        <v>5.66</v>
+      </c>
+      <c r="AH28" s="15">
+        <v>63.6</v>
+      </c>
+      <c r="AI28" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="AJ28" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="AK28" s="15">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="AL28" s="15">
+        <v>599.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="15">
+        <v>721.89999999999986</v>
+      </c>
+      <c r="C29" s="15">
+        <v>28.5</v>
+      </c>
+      <c r="D29" s="15">
+        <v>34.1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="G29" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1052.8</v>
+      </c>
+      <c r="I29" s="15">
+        <v>718.69999999999993</v>
+      </c>
+      <c r="J29" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="K29" s="15">
+        <v>73</v>
+      </c>
+      <c r="L29" s="15">
+        <v>255.5</v>
+      </c>
+      <c r="M29" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="N29" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>49</v>
+      </c>
+      <c r="R29" s="15">
+        <v>350.8</v>
+      </c>
+      <c r="S29" s="15">
+        <v>107.9</v>
+      </c>
+      <c r="T29" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="U29" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="V29" s="15">
+        <v>87.100000000000009</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="X29" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>102.2</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="AD29" s="15">
+        <v>33.5</v>
+      </c>
+      <c r="AE29" s="15">
+        <v>6.16</v>
+      </c>
+      <c r="AF29" s="15">
+        <v>10.87</v>
+      </c>
+      <c r="AG29" s="15">
+        <v>11</v>
+      </c>
+      <c r="AH29" s="15">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AI29" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ29" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="AK29" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AL29" s="15">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" s="15">
+        <v>677.80000000000007</v>
+      </c>
+      <c r="C30" s="15">
+        <v>29.8</v>
+      </c>
+      <c r="D30" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>81</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="G30" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1537.7</v>
+      </c>
+      <c r="I30" s="15">
+        <v>993</v>
+      </c>
+      <c r="J30" s="15">
+        <v>100.1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>95.09999999999998</v>
+      </c>
+      <c r="L30" s="15">
+        <v>400.7</v>
+      </c>
+      <c r="M30" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="N30" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="R30" s="15">
+        <v>2586.4</v>
+      </c>
+      <c r="S30" s="15">
+        <v>458.50000000000011</v>
+      </c>
+      <c r="T30" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="U30" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="V30" s="15">
+        <v>210.7</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X30" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>10.9</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>2.08</v>
+      </c>
+      <c r="AD30" s="15">
+        <v>40</v>
+      </c>
+      <c r="AE30" s="15">
+        <v>4.07</v>
+      </c>
+      <c r="AF30" s="15">
+        <v>8.94</v>
+      </c>
+      <c r="AG30" s="15">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AH30" s="15">
+        <v>113.2</v>
+      </c>
+      <c r="AI30" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="AJ30" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="AK30" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="AL30" s="15">
+        <v>306.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="15">
+        <v>659.5</v>
+      </c>
+      <c r="C31" s="15">
+        <v>28.4</v>
+      </c>
+      <c r="D31" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="E31" s="15">
+        <v>75.7</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="G31" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H31" s="15">
+        <v>730.7</v>
+      </c>
+      <c r="I31" s="15">
+        <v>721</v>
+      </c>
+      <c r="J31" s="15">
+        <v>147.6</v>
+      </c>
+      <c r="K31" s="15">
+        <v>85.1</v>
+      </c>
+      <c r="L31" s="15">
+        <v>448.50000000000011</v>
+      </c>
+      <c r="M31" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="N31" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1.03</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>15.6</v>
+      </c>
+      <c r="R31" s="15">
+        <v>486.2</v>
+      </c>
+      <c r="S31" s="15">
+        <v>89.899999999999991</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U31" s="15">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="V31" s="15">
+        <v>115.3</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="Z31" s="15">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>207.2</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>1.84</v>
+      </c>
+      <c r="AD31" s="15">
+        <v>42.7</v>
+      </c>
+      <c r="AE31" s="15">
+        <v>3.03</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>11.75</v>
+      </c>
+      <c r="AG31" s="15">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="AH31" s="15">
+        <v>194.1</v>
+      </c>
+      <c r="AI31" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ31" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK31" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="AL31" s="15">
+        <v>324.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,4 +8710,675 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDEC62F-35BD-AF4B-9125-14516A9A2331}">
+  <dimension ref="A1:C76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="49" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85">
+      <c r="A6" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="238">
+      <c r="A7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="35">
+      <c r="A12" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="35">
+      <c r="A13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="103">
+      <c r="A14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
+      <c r="A15" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
+      <c r="A17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120">
+      <c r="A18" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="52">
+      <c r="A19" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35">
+      <c r="A20" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19">
+      <c r="A21" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="35">
+      <c r="A22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="35">
+      <c r="A23" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="35">
+      <c r="A24" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19">
+      <c r="A25" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19">
+      <c r="A26" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="35">
+      <c r="A27" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19">
+      <c r="A28" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19">
+      <c r="A29" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19">
+      <c r="A31" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19">
+      <c r="A32" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19">
+      <c r="A34" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34">
+      <c r="A35" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="35">
+      <c r="A36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19">
+      <c r="A37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19">
+      <c r="A38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="35">
+      <c r="A39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19">
+      <c r="A40" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19">
+      <c r="A41" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19">
+      <c r="A42" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19">
+      <c r="A43" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="52">
+      <c r="A44" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19">
+      <c r="A45" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="51">
+      <c r="A46" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="19">
+      <c r="A47" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17">
+      <c r="A48" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19">
+      <c r="A49" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34">
+      <c r="A50" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="19">
+      <c r="A51" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="119">
+      <c r="A52" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="19">
+      <c r="A53" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="19">
+      <c r="A54" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19">
+      <c r="A55" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="85">
+      <c r="A56" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="51">
+      <c r="A57" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="35">
+      <c r="A58" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19">
+      <c r="A59" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="19">
+      <c r="A60" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="69">
+      <c r="A61" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17">
+      <c r="A62" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="103">
+      <c r="A63" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="19">
+      <c r="A64" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19">
+      <c r="A65" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="19">
+      <c r="A66" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="35">
+      <c r="A67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="68">
+      <c r="A68" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="52">
+      <c r="A69" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="35">
+      <c r="A70" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="19">
+      <c r="A71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="19">
+      <c r="A72" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="19">
+      <c r="A73" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="19">
+      <c r="A74" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="19">
+      <c r="A75" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="19">
+      <c r="A76" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C76">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.webmd.com/vitamins/ai/ingredientmono-111/burdock" xr:uid="{B326EA2B-7068-F544-9FDA-D78A916130E7}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{81501921-63A4-C04F-B938-769237AD7D03}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{13BA0CBD-8A5F-9242-9E44-6D6ADE91936C}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{6748FF9D-2D58-F640-A8DC-CCD4609B15F9}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{96C5D0F2-F9F4-B843-BE7B-17927F4F0C8E}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{4A9F327F-B31B-8043-8B0A-DF7A74685176}"/>
+    <hyperlink ref="C36" r:id="rId7" xr:uid="{EBFB85C5-B599-C64E-A1ED-8DF3FE60722A}"/>
+    <hyperlink ref="C44" r:id="rId8" xr:uid="{B9A695C6-88F5-0047-8284-BBA5EB8EF82E}"/>
+    <hyperlink ref="C46" r:id="rId9" xr:uid="{B68A78F4-D1F9-824B-B709-91F5CF1603EB}"/>
+    <hyperlink ref="C52" r:id="rId10" xr:uid="{76A6FB7E-7897-D34E-9825-169CBE69B4E6}"/>
+    <hyperlink ref="C56" r:id="rId11" xr:uid="{2EE26872-7245-E245-ABD5-00A2869D74D9}"/>
+    <hyperlink ref="C57" r:id="rId12" display="https://kale.world/taro-vs-sweet-potato/" xr:uid="{D1F03D9B-736F-DF48-A448-E04A0AF850E9}"/>
+    <hyperlink ref="C58" r:id="rId13" xr:uid="{2EAB7308-D245-FD44-94A2-61C63C2FC1A1}"/>
+    <hyperlink ref="B1" r:id="rId14" xr:uid="{9400DE99-482B-8548-866C-9CFC40B4E40D}"/>
+    <hyperlink ref="C61" r:id="rId15" xr:uid="{789ADE15-D5DB-AC42-95E5-39D3D5880D8B}"/>
+    <hyperlink ref="C70" r:id="rId16" xr:uid="{EA93DC44-81B2-5A44-9806-D30262AC9A7D}"/>
+    <hyperlink ref="C62" r:id="rId17" xr:uid="{1C8FC844-A2BB-E74C-9E6D-F64725A285A7}"/>
+    <hyperlink ref="C68" r:id="rId18" xr:uid="{597BFCE9-64BC-954E-A00D-4B65F5B8FD0E}"/>
+    <hyperlink ref="C69" r:id="rId19" xr:uid="{F2A25933-1C56-E841-9B1F-60F8BFB28CD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/Oisix/Demo_meals.xlsx
+++ b/csv/Oisix/Demo_meals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnyjones/Documents/Github/Saana_devel/csv/Oisix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{364B970C-C1F5-1340-BE5E-6C5D88570FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF16F36-9765-B743-9D42-FAABA0344E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24720" windowHeight="17540" activeTab="3" xr2:uid="{E8325D28-9BCC-284E-A723-7EDFB092BAC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{E8325D28-9BCC-284E-A723-7EDFB092BAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="demo_ingredients" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="433">
   <si>
     <t>Item Name</t>
   </si>
@@ -1523,6 +1523,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seaweed, Boiled hijiki </t>
+  </si>
+  <si>
+    <t>Shiitake mushroom</t>
   </si>
 </sst>
 </file>
@@ -2030,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4490E09-7461-C04A-BE69-A23329171A10}">
   <dimension ref="A1:A572"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2056,7 +2059,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -8716,7 +8719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDEC62F-35BD-AF4B-9125-14516A9A2331}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
